--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_4.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_3</t>
+          <t>model_7_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2853757124213401</v>
+        <v>0.7010364209363523</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.398666839208786</v>
+        <v>0.9953471598035962</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01478813512634813</v>
+        <v>-0.02903659871527808</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.33381079466746</v>
+        <v>0.9670915577989236</v>
       </c>
       <c r="F2" t="n">
-        <v>1.422532200813293</v>
+        <v>0.3308645784854889</v>
       </c>
       <c r="G2" t="n">
-        <v>5.98256254196167</v>
+        <v>0.01174833066761494</v>
       </c>
       <c r="H2" t="n">
-        <v>1.120819330215454</v>
+        <v>0.09948210418224335</v>
       </c>
       <c r="I2" t="n">
-        <v>3.694684267044067</v>
+        <v>0.05303477123379707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_5</t>
+          <t>model_7_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2837747047413759</v>
+        <v>0.7116203156363476</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.941013978056824</v>
+        <v>0.994811192539603</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.128982817246214</v>
+        <v>-0.06336989484612077</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.614090355324092</v>
+        <v>0.9656776107650619</v>
       </c>
       <c r="F3" t="n">
-        <v>1.420760273933411</v>
+        <v>0.3191513419151306</v>
       </c>
       <c r="G3" t="n">
-        <v>5.475412368774414</v>
+        <v>0.01310163643211126</v>
       </c>
       <c r="H3" t="n">
-        <v>2.351431846618652</v>
+        <v>0.1028012707829475</v>
       </c>
       <c r="I3" t="n">
-        <v>4.005302429199219</v>
+        <v>0.05531346425414085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_24</t>
+          <t>model_7_4_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2453704056404395</v>
+        <v>0.7215422290425451</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.999364543157187</v>
+        <v>0.9942220113491079</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.052518781571905</v>
+        <v>-0.1167933056692416</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.078109802881587</v>
+        <v>0.9636809891137257</v>
       </c>
       <c r="F4" t="n">
-        <v>1.378257989883423</v>
+        <v>0.3081707060337067</v>
       </c>
       <c r="G4" t="n">
-        <v>5.540073871612549</v>
+        <v>0.01458930782973766</v>
       </c>
       <c r="H4" t="n">
-        <v>3.371464014053345</v>
+        <v>0.1079659759998322</v>
       </c>
       <c r="I4" t="n">
-        <v>4.519550323486328</v>
+        <v>0.05853119120001793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_4</t>
+          <t>model_7_4_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2297542552922007</v>
+        <v>0.7314160228038955</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.034101238526431</v>
+        <v>0.9937581363616567</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1261786806063996</v>
+        <v>-0.1433477429565704</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.193062269091802</v>
+        <v>0.9625465148118831</v>
       </c>
       <c r="F5" t="n">
-        <v>1.360975503921509</v>
+        <v>0.2972433269023895</v>
       </c>
       <c r="G5" t="n">
-        <v>5.578567504882812</v>
+        <v>0.01576058380305767</v>
       </c>
       <c r="H5" t="n">
-        <v>1.243848562240601</v>
+        <v>0.110533133149147</v>
       </c>
       <c r="I5" t="n">
-        <v>3.538699626922607</v>
+        <v>0.06035949289798737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_23</t>
+          <t>model_7_4_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2118072009519474</v>
+        <v>0.7410361528003662</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.845388198808979</v>
+        <v>0.9933381818486436</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.990089044836076</v>
+        <v>-0.1579419036743737</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.967321370261961</v>
+        <v>0.9617861650210743</v>
       </c>
       <c r="F6" t="n">
-        <v>1.341113448143005</v>
+        <v>0.2865966856479645</v>
       </c>
       <c r="G6" t="n">
-        <v>5.369443893432617</v>
+        <v>0.01682095974683762</v>
       </c>
       <c r="H6" t="n">
-        <v>3.302511692047119</v>
+        <v>0.1119440197944641</v>
       </c>
       <c r="I6" t="n">
-        <v>4.396770000457764</v>
+        <v>0.06158486381173134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_22</t>
+          <t>model_7_4_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1886705687875456</v>
+        <v>0.7503608011788359</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.711485647115933</v>
+        <v>0.9929281549487654</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.977573877696502</v>
+        <v>-0.1654643238924884</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.890568488682234</v>
+        <v>0.961233911593399</v>
       </c>
       <c r="F7" t="n">
-        <v>1.315508008003235</v>
+        <v>0.2762770354747772</v>
       </c>
       <c r="G7" t="n">
-        <v>5.221059799194336</v>
+        <v>0.01785627007484436</v>
       </c>
       <c r="H7" t="n">
-        <v>3.288688659667969</v>
+        <v>0.1126712560653687</v>
       </c>
       <c r="I7" t="n">
-        <v>4.311708927154541</v>
+        <v>0.06247486919164658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_21</t>
+          <t>model_7_4_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1672849907958769</v>
+        <v>0.7593124892612211</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.59289872098536</v>
+        <v>0.9924396026849251</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.956382448462141</v>
+        <v>-0.1706728013615191</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.817854110038607</v>
+        <v>0.9606813526504161</v>
       </c>
       <c r="F8" t="n">
-        <v>1.291840553283691</v>
+        <v>0.2663701176643372</v>
       </c>
       <c r="G8" t="n">
-        <v>5.089646339416504</v>
+        <v>0.01908985525369644</v>
       </c>
       <c r="H8" t="n">
-        <v>3.265283107757568</v>
+        <v>0.11317478120327</v>
       </c>
       <c r="I8" t="n">
-        <v>4.231122970581055</v>
+        <v>0.06336536258459091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_19</t>
+          <t>model_7_4_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.09802252337477513</v>
+        <v>0.7679069144789443</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.066582383996989</v>
+        <v>0.9918133779513236</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.057767555901502</v>
+        <v>-0.1721146476716549</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.586786866214918</v>
+        <v>0.9601214167747684</v>
       </c>
       <c r="F9" t="n">
-        <v>1.215187311172485</v>
+        <v>0.2568586468696594</v>
       </c>
       <c r="G9" t="n">
-        <v>4.506406307220459</v>
+        <v>0.02067106030881405</v>
       </c>
       <c r="H9" t="n">
-        <v>3.377261400222778</v>
+        <v>0.1133141741156578</v>
       </c>
       <c r="I9" t="n">
-        <v>3.975043773651123</v>
+        <v>0.06426775455474854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_20</t>
+          <t>model_7_4_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09514639879174336</v>
+        <v>0.7761133247617075</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.036221387480551</v>
+        <v>0.9910541349790934</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.071917683473804</v>
+        <v>-0.1722857151106474</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.577351297792847</v>
+        <v>0.9594868893542909</v>
       </c>
       <c r="F10" t="n">
-        <v>1.212004423141479</v>
+        <v>0.2477765530347824</v>
       </c>
       <c r="G10" t="n">
-        <v>4.472761154174805</v>
+        <v>0.02258813381195068</v>
       </c>
       <c r="H10" t="n">
-        <v>3.392889976501465</v>
+        <v>0.113330714404583</v>
       </c>
       <c r="I10" t="n">
-        <v>3.964586496353149</v>
+        <v>0.06529034674167633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_17</t>
+          <t>model_7_4_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05488186627312164</v>
+        <v>0.7839656052351758</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.78895969205719</v>
+        <v>0.9901941677396083</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.056104135671491</v>
+        <v>-0.1708206771694321</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.43904296900552</v>
+        <v>0.9588147970333097</v>
       </c>
       <c r="F11" t="n">
-        <v>1.16744339466095</v>
+        <v>0.2390864044427872</v>
       </c>
       <c r="G11" t="n">
-        <v>4.198756694793701</v>
+        <v>0.02475953474640846</v>
       </c>
       <c r="H11" t="n">
-        <v>3.375424146652222</v>
+        <v>0.1131890788674355</v>
       </c>
       <c r="I11" t="n">
-        <v>3.811307191848755</v>
+        <v>0.06637348234653473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_18</t>
+          <t>model_7_4_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.052804227651011</v>
+        <v>0.7915069777818194</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.743664691138973</v>
+        <v>0.9892221786658402</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.096702373374194</v>
+        <v>-0.1654686305889685</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.434103634337449</v>
+        <v>0.9581598176206432</v>
       </c>
       <c r="F12" t="n">
-        <v>1.165144085884094</v>
+        <v>0.2307403385639191</v>
       </c>
       <c r="G12" t="n">
-        <v>4.148562908172607</v>
+        <v>0.02721378579735756</v>
       </c>
       <c r="H12" t="n">
-        <v>3.42026424407959</v>
+        <v>0.1126716732978821</v>
       </c>
       <c r="I12" t="n">
-        <v>3.805833339691162</v>
+        <v>0.06742902845144272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_16</t>
+          <t>model_7_4_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03005891667402349</v>
+        <v>0.7987333832400106</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.627822835916009</v>
+        <v>0.9880667076645869</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.053169040146478</v>
+        <v>-0.1557372249063298</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.352364991297283</v>
+        <v>0.9574758523560566</v>
       </c>
       <c r="F13" t="n">
-        <v>1.139971852302551</v>
+        <v>0.2227428406476974</v>
       </c>
       <c r="G13" t="n">
-        <v>4.02019214630127</v>
+        <v>0.03013132698833942</v>
       </c>
       <c r="H13" t="n">
-        <v>3.372182130813599</v>
+        <v>0.1117308884859085</v>
       </c>
       <c r="I13" t="n">
-        <v>3.715246200561523</v>
+        <v>0.06853130459785461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_15</t>
+          <t>model_7_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01960274808805051</v>
+        <v>0.8055656477984454</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.298010328524482</v>
+        <v>0.9866314897918743</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.063925187465335</v>
+        <v>-0.1436969597742572</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.182816161219572</v>
+        <v>0.9566251897023411</v>
       </c>
       <c r="F14" t="n">
-        <v>1.085010886192322</v>
+        <v>0.2151815146207809</v>
       </c>
       <c r="G14" t="n">
-        <v>3.654708862304688</v>
+        <v>0.03375522419810295</v>
       </c>
       <c r="H14" t="n">
-        <v>3.38406229019165</v>
+        <v>0.1105668917298317</v>
       </c>
       <c r="I14" t="n">
-        <v>3.527344942092896</v>
+        <v>0.0699022188782692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_2</t>
+          <t>model_7_4_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05822496887557727</v>
+        <v>0.8120296626199467</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.360702444949632</v>
+        <v>0.9848955053489047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.188182710521544</v>
+        <v>-0.1298804371649824</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.159785013606561</v>
+        <v>0.9555755315290263</v>
       </c>
       <c r="F15" t="n">
-        <v>1.042267441749573</v>
+        <v>0.2080277651548386</v>
       </c>
       <c r="G15" t="n">
-        <v>3.724181175231934</v>
+        <v>0.03813855350017548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8966407775878906</v>
+        <v>0.1092311814427376</v>
       </c>
       <c r="I15" t="n">
-        <v>2.393573999404907</v>
+        <v>0.07159382849931717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_10</t>
+          <t>model_7_4_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06930380368576028</v>
+        <v>0.8180600932885804</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8616241828455757</v>
+        <v>0.9827285379919948</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.872395983818526</v>
+        <v>-0.1155430589260462</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.801604012227044</v>
+        <v>0.954182708291053</v>
       </c>
       <c r="F16" t="n">
-        <v>1.030006527900696</v>
+        <v>0.2013538628816605</v>
       </c>
       <c r="G16" t="n">
-        <v>2.062969207763672</v>
+        <v>0.0436101034283638</v>
       </c>
       <c r="H16" t="n">
-        <v>4.277007102966309</v>
+        <v>0.1078451126813889</v>
       </c>
       <c r="I16" t="n">
-        <v>3.104867696762085</v>
+        <v>0.0738384798169136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_14</t>
+          <t>model_7_4_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1036044767231512</v>
+        <v>0.8237079162181447</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.936849551293159</v>
+        <v>0.9802214206070941</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.849676103756004</v>
+        <v>-0.09969650401899832</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.891148169702632</v>
+        <v>0.9525505685244295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9920457601547241</v>
+        <v>0.1951033920049667</v>
       </c>
       <c r="G17" t="n">
-        <v>3.254486322402954</v>
+        <v>0.04994052276015282</v>
       </c>
       <c r="H17" t="n">
-        <v>3.147427082061768</v>
+        <v>0.1063131541013718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.204104423522949</v>
+        <v>0.0764688178896904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_13</t>
+          <t>model_7_4_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1108064016901814</v>
+        <v>0.8290097938278064</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.912169103347682</v>
+        <v>0.9773600867197085</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.826458613688755</v>
+        <v>-0.08184012228103632</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.867195149362375</v>
+        <v>0.9506814332620406</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9840752482414246</v>
+        <v>0.1892357766628265</v>
       </c>
       <c r="G18" t="n">
-        <v>3.227136611938477</v>
+        <v>0.05716533958911896</v>
       </c>
       <c r="H18" t="n">
-        <v>3.12178373336792</v>
+        <v>0.1045868843793869</v>
       </c>
       <c r="I18" t="n">
-        <v>3.177558898925781</v>
+        <v>0.07948108017444611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_1</t>
+          <t>model_7_4_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.145550882239597</v>
+        <v>0.833956291664372</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.831113033676233</v>
+        <v>0.9742006670297046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2891139165243308</v>
+        <v>-0.06278338586265719</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.8321011749220559</v>
+        <v>0.94859856023617</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9456233978271484</v>
+        <v>0.1837614625692368</v>
       </c>
       <c r="G19" t="n">
-        <v>3.137313842773438</v>
+        <v>0.06514281034469604</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7851637005805969</v>
+        <v>0.1027445793151855</v>
       </c>
       <c r="I19" t="n">
-        <v>2.030419588088989</v>
+        <v>0.08283782005310059</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_9</t>
+          <t>model_7_4_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1736289304010045</v>
+        <v>0.8386455507136568</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9849133199578401</v>
+        <v>0.9709915185074701</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.87086948107455</v>
+        <v>-0.04415397477127847</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.397160916145893</v>
+        <v>0.946462796452093</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9145492911338806</v>
+        <v>0.1785718202590942</v>
       </c>
       <c r="G20" t="n">
-        <v>2.19959282875061</v>
+        <v>0.07324584573507309</v>
       </c>
       <c r="H20" t="n">
-        <v>3.170835018157959</v>
+        <v>0.1009435728192329</v>
       </c>
       <c r="I20" t="n">
-        <v>2.656644821166992</v>
+        <v>0.08627977967262268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_8</t>
+          <t>model_7_4_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1869310071969891</v>
+        <v>0.8431312028730571</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8427946484173234</v>
+        <v>0.9677719315401913</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.84800988362023</v>
+        <v>-0.02494644461521722</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.311206664751731</v>
+        <v>0.944334302443721</v>
       </c>
       <c r="F21" t="n">
-        <v>0.899827778339386</v>
+        <v>0.1736075133085251</v>
       </c>
       <c r="G21" t="n">
-        <v>2.042103290557861</v>
+        <v>0.08137524127960205</v>
       </c>
       <c r="H21" t="n">
-        <v>3.145586967468262</v>
+        <v>0.09908668696880341</v>
       </c>
       <c r="I21" t="n">
-        <v>2.561386585235596</v>
+        <v>0.0897100418806076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_11</t>
+          <t>model_7_4_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2087453279990306</v>
+        <v>0.8473729622258691</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.233375905710121</v>
+        <v>0.9644399825243707</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.809100718746538</v>
+        <v>-0.005297002176353649</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.499722315089277</v>
+        <v>0.9421255319024705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8756858110427856</v>
+        <v>0.1689131557941437</v>
       </c>
       <c r="G22" t="n">
-        <v>2.47492790222168</v>
+        <v>0.08978834748268127</v>
       </c>
       <c r="H22" t="n">
-        <v>3.102612495422363</v>
+        <v>0.09718708693981171</v>
       </c>
       <c r="I22" t="n">
-        <v>2.770308494567871</v>
+        <v>0.09326965361833572</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_0</t>
+          <t>model_7_4_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2406447954416491</v>
+        <v>0.851405486088011</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.138624886752568</v>
+        <v>0.961088198580199</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3397675113995917</v>
+        <v>0.01501104771504935</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4417639094617363</v>
+        <v>0.9399184975149356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.84038245677948</v>
+        <v>0.1644503325223923</v>
       </c>
       <c r="G23" t="n">
-        <v>2.369929313659668</v>
+        <v>0.09825152903795242</v>
       </c>
       <c r="H23" t="n">
-        <v>0.729217529296875</v>
+        <v>0.0952237993478775</v>
       </c>
       <c r="I23" t="n">
-        <v>1.597829699516296</v>
+        <v>0.09682648628950119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_12</t>
+          <t>model_7_4_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.266601743853611</v>
+        <v>0.8552787805371339</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.194647997240153</v>
+        <v>0.9578441704621208</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.52080018218836</v>
+        <v>0.03385332141844122</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.34401027948072</v>
+        <v>0.9377594922033478</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8116558194160461</v>
+        <v>0.1601637452840805</v>
       </c>
       <c r="G24" t="n">
-        <v>2.432011604309082</v>
+        <v>0.1064426451921463</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784188270568848</v>
+        <v>0.09340222179889679</v>
       </c>
       <c r="I24" t="n">
-        <v>2.597740888595581</v>
+        <v>0.1003059074282646</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_7</t>
+          <t>model_7_4_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4607519426339464</v>
+        <v>0.858953942250995</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5179506445102064</v>
+        <v>0.954584552295627</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1222935968135672</v>
+        <v>0.05273664968149294</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3299016233264938</v>
+        <v>0.9355886252203311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5967887043952942</v>
+        <v>0.1560964286327362</v>
       </c>
       <c r="G25" t="n">
-        <v>1.682125568389893</v>
+        <v>0.1146731078624725</v>
       </c>
       <c r="H25" t="n">
-        <v>1.239557504653931</v>
+        <v>0.09157668054103851</v>
       </c>
       <c r="I25" t="n">
-        <v>1.473858833312988</v>
+        <v>0.1038044318556786</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_4_6</t>
+          <t>model_7_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5009888140203769</v>
+        <v>0.8624568625104797</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3220327106027809</v>
+        <v>0.9513572556322939</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02225523372349969</v>
+        <v>0.07117923348635713</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1583960071499801</v>
+        <v>0.933432494172218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.552258312702179</v>
+        <v>0.1522197425365448</v>
       </c>
       <c r="G26" t="n">
-        <v>1.465018033981323</v>
+        <v>0.1228219792246819</v>
       </c>
       <c r="H26" t="n">
-        <v>1.079905390739441</v>
+        <v>0.08979374170303345</v>
       </c>
       <c r="I26" t="n">
-        <v>1.283788084983826</v>
+        <v>0.1072792261838913</v>
       </c>
     </row>
   </sheetData>
